--- a/sm_car_ARTTU_Powertrain.xlsx
+++ b/sm_car_ARTTU_Powertrain.xlsx
@@ -1,20 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Desktop/FSAE/Vehicle Model/Main/Develop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696EC135-9167-014F-8A9A-625F6DFE661E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="12340" yWindow="720" windowWidth="17160" windowHeight="19820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Convertors" sheetId="1" r:id="rId4"/>
-    <sheet name="Battery" sheetId="2" r:id="rId5"/>
-    <sheet name="Driveline" sheetId="3" r:id="rId6"/>
-    <sheet name="Motor" sheetId="4" r:id="rId7"/>
+    <sheet name="Power" sheetId="5" r:id="rId1"/>
+    <sheet name="Driveline" sheetId="3" r:id="rId2"/>
+    <sheet name="Converter" sheetId="1" r:id="rId3"/>
+    <sheet name="Battery" sheetId="2" r:id="rId4"/>
+    <sheet name="V0" sheetId="10" r:id="rId5"/>
+    <sheet name="R0" sheetId="9" r:id="rId6"/>
+    <sheet name="Motor" sheetId="6" r:id="rId7"/>
+    <sheet name="TrqSpd" sheetId="4" r:id="rId8"/>
+    <sheet name="ThermalLoss" sheetId="8" r:id="rId9"/>
+    <sheet name="LossTable" sheetId="7" r:id="rId10"/>
   </sheets>
+  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="77">
   <si>
     <t>Category</t>
   </si>
@@ -31,16 +62,58 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Electric_L2_R2</t>
+  </si>
+  <si>
     <t>Instance</t>
   </si>
   <si>
+    <t>Axle2_L2_R2_default</t>
+  </si>
+  <si>
     <t>class</t>
   </si>
   <si>
-    <t>Convertor</t>
-  </si>
-  <si>
-    <t>Reference Voltage</t>
+    <t>L2_R2</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>Liquid_Loop1</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>SHEET</t>
+  </si>
+  <si>
+    <t>Converter</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Driveline</t>
+  </si>
+  <si>
+    <t>Gearbox</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>Final Drive Ratio</t>
+  </si>
+  <si>
+    <t>Driveshaft</t>
+  </si>
+  <si>
+    <t>vRef</t>
   </si>
   <si>
     <t>V</t>
@@ -52,111 +125,171 @@
     <t>W</t>
   </si>
   <si>
-    <t>I Max Supply</t>
+    <t>iMaxSupply</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>Efficiency</t>
+    <t>efficiency</t>
   </si>
   <si>
     <t>%</t>
   </si>
   <si>
-    <t>Frequency</t>
+    <t>fConverter</t>
   </si>
   <si>
     <t>Hz</t>
   </si>
   <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>SOC no load</t>
-  </si>
-  <si>
-    <t>Must be a vector [1 x m]</t>
-  </si>
-  <si>
-    <t>Temperature no load</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Must be a vector [1 x n]</t>
-  </si>
-  <si>
-    <t>V0 no load</t>
-  </si>
-  <si>
-    <t>Must be a matrix [m x n]</t>
-  </si>
-  <si>
-    <t>SOC rterminal</t>
-  </si>
-  <si>
-    <t>Temperature terminal</t>
-  </si>
-  <si>
-    <t>R0 rterminal</t>
+    <t>vNoLoad</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>Must be a vector [1 x m] ; Vector of state-of-charge-values</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>[293.15 300.15 307.15 314.15 320.15 325.15]</t>
+  </si>
+  <si>
+    <t>degK</t>
+  </si>
+  <si>
+    <t>Must be a vector [1 x n] ; Vector of temperatures</t>
+  </si>
+  <si>
+    <t>V0</t>
+  </si>
+  <si>
+    <t>TABLE</t>
+  </si>
+  <si>
+    <t>rTerminal</t>
+  </si>
+  <si>
+    <t>Must be a vector [1 x m] ; Same vector of state of charge</t>
+  </si>
+  <si>
+    <t>Must be a vector [1 x n] ; Same Vector of temperatures</t>
+  </si>
+  <si>
+    <t>R0</t>
   </si>
   <si>
     <t>Ohm</t>
   </si>
   <si>
-    <t>Maximum Capacity</t>
+    <t>AhTable</t>
   </si>
   <si>
     <t>Ah</t>
   </si>
   <si>
-    <t>Driveline</t>
-  </si>
-  <si>
-    <t>Axle2_L2_R2_default</t>
-  </si>
-  <si>
-    <t>L2_R2</t>
-  </si>
-  <si>
-    <t>GearboxL2</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>Final Drive Ratio</t>
-  </si>
-  <si>
-    <t>GearboxR2</t>
+    <t>hr*A</t>
+  </si>
+  <si>
+    <t>SOCInit</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>TorqueSpd</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>[0 100 200 300 400 500 600 700 800 900 1000 1100 1200 1300 1400 1500 1600 1700 1800 1900 2000 2100 2200 2300 2400 2500 2600 2700 2800 2900 3000 3100 3200 3300 3400 3500 3600 3700 3800 3900 4000 4100 4200 4300 4400 4500 4600]</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>trq</t>
+  </si>
+  <si>
+    <t>[51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 51.0306904761905 44.843689833269 36.8215688218961 30.062728824122 25.3370743140982 21.0374123095361 17.0840324267782 13.4184887499186 9.99592684833052 6.77696534591492 3.73957484604455]</t>
+  </si>
+  <si>
+    <t>N*m</t>
+  </si>
+  <si>
+    <t>fActuatorCutoff</t>
+  </si>
+  <si>
+    <t>LossTable</t>
+  </si>
+  <si>
+    <t>ThermalLoss</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>degC</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>mThermal</t>
+  </si>
+  <si>
+    <t>J/K</t>
+  </si>
+  <si>
+    <t>Tinit</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>kg*m^2</t>
+  </si>
+  <si>
+    <t>0 for fast initialization</t>
   </si>
   <si>
     <t>Engine Speed [rpm]</t>
   </si>
   <si>
     <t>Torque [Nm]</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>TAmbient</t>
+  </si>
+  <si>
+    <t>[13333.3333 15000 16666.6667 18333.3333 20000]</t>
+  </si>
+  <si>
+    <t>[0 1666.6667 3333.3333 4774.6371 5000 6666.6667 8333.3333 10000 11666.6667 13333.3333 15000 16666.6667 18333.3333 20000]</t>
+  </si>
+  <si>
+    <t>[6 22 38 52 72 99]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="60" formatCode="0.000000000000"/>
-    <numFmt numFmtId="61" formatCode="0.00000000000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -164,31 +297,35 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +368,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -286,7 +429,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -304,7 +447,7 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="medium">
@@ -319,28 +462,13 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -349,7 +477,7 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="thin">
@@ -364,13 +492,13 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -379,43 +507,13 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -513,174 +611,526 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="slantDashDot">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="slantDashDot">
+        <color indexed="8"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="slantDashDot">
+        <color indexed="8"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="95">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="2" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="2" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="2" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="61" fontId="2" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="61" fontId="2" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,33 +1140,89 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff5b9bd5"/>
-      <rgbColor rgb="ff9cc2e5"/>
-      <rgbColor rgb="ffbdd6ee"/>
-      <rgbColor rgb="ffdeeaf6"/>
-      <rgbColor rgb="ffa3c0e1"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff878787"/>
-      <rgbColor rgb="ff42719b"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF5B9BD5"/>
+      <rgbColor rgb="FF9CC2E5"/>
+      <rgbColor rgb="FFBDD6EE"/>
+      <rgbColor rgb="FFDEEAF6"/>
+      <rgbColor rgb="FFA3C0E1"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF42719B"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -725,10 +1231,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.144614"/>
-          <c:y val="0.0551577"/>
-          <c:w val="0.850386"/>
-          <c:h val="0.766261"/>
+          <c:x val="0.14461399999999999"/>
+          <c:y val="5.5157699999999997E-2"/>
+          <c:w val="0.85038599999999998"/>
+          <c:h val="0.76626099999999997"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -741,9 +1247,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="42719B"/>
-            </a:solidFill>
             <a:ln w="47625" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="42719B"/>
@@ -770,31 +1273,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica Neue"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strLit>
               <c:ptCount val="49"/>
@@ -942,163 +1420,181 @@
               <c:pt idx="47">
                 <c:v>Engine Speed [rpm]</c:v>
               </c:pt>
-              <c:pt idx="48">
-                <c:v/>
-              </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Motor'!$C$1:$C$48,'Motor'!$B$1</c:f>
+              <c:f>(TrqSpd!$C$1:$C$48,TrqSpd!$B$1)</c:f>
               <c:numCache>
-                <c:ptCount val="47"/>
+                <c:formatCode>0.0000000000000</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0" formatCode="@">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>44.843690</c:v>
+                <c:pt idx="38" formatCode="0.000000000000">
+                  <c:v>44.843689833269003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>36.821569</c:v>
+                  <c:v>36.821568821896101</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>30.062729</c:v>
+                <c:pt idx="40" formatCode="0.000000000000">
+                  <c:v>30.062728824122001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>25.337074</c:v>
+                  <c:v>25.337074314098199</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>21.037412</c:v>
+                  <c:v>21.037412309536101</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17.084032</c:v>
+                  <c:v>17.084032426778201</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.418489</c:v>
+                  <c:v>13.4184887499186</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>9.995927</c:v>
+                <c:pt idx="45" formatCode="0.00000000000000">
+                  <c:v>9.9959268483305195</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.776965</c:v>
+                <c:pt idx="46" formatCode="0.00000000000000">
+                  <c:v>6.7769653459149204</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.739575</c:v>
+                <c:pt idx="47" formatCode="0.00000000000000">
+                  <c:v>3.7395748460445501</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="@">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF2F-4F66-8541-29E2A3834BE7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
       </c:lineChart>
@@ -1127,7 +1623,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1135,7 +1631,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1146,10 +1642,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1165,19 +1660,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Helvetica Neue"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
         <c:tickLblSkip val="5"/>
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
@@ -1206,7 +1703,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1214,7 +1711,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1225,10 +1722,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1246,13 +1742,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Helvetica Neue"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
@@ -1274,6 +1771,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1288,11 +1786,16 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1306,18 +1809,24 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="2D Line Chart"/>
+        <xdr:cNvPr id="2" name="2D Line Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2762249" y="1028700"/>
-        <a:ext cx="6300636" cy="4949429"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1327,7 +1836,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1526,7 +2035,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1544,7 +2053,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1573,7 +2082,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1598,7 +2107,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1623,7 +2132,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1648,7 +2157,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1673,7 +2182,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1698,7 +2207,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1723,7 +2232,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1748,7 +2257,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1773,7 +2282,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1786,9 +2295,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1805,7 +2320,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1823,7 +2338,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1848,7 +2363,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1873,7 +2388,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1898,7 +2413,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1923,7 +2438,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1948,7 +2463,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1973,7 +2488,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1998,7 +2513,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2023,7 +2538,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2048,7 +2563,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2061,9 +2576,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2077,7 +2598,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2095,7 +2616,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2124,7 +2645,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2149,7 +2670,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2174,7 +2695,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2199,7 +2720,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2224,7 +2745,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2249,7 +2770,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2274,7 +2795,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2299,7 +2820,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2324,7 +2845,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2337,298 +2858,756 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00263F3-5313-2243-ABC4-B6F2C903BE23}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7969" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" t="s" s="4">
+      <c r="B1" s="25"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.1" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" ht="14.1" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>5</v>
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" ht="14.1" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>6</v>
+    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" ht="14.1" customHeight="1">
-      <c r="A5" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s" s="12">
+    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" t="s" s="17">
-        <v>10</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" t="s" s="19">
+      <c r="C5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" ht="14.1" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" t="s" s="17">
+      <c r="D5" s="9"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="28">
+        <v>293</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" t="s" s="19">
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" t="s" s="17">
+      <c r="B7" s="7"/>
+      <c r="C7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" t="s" s="19">
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" t="s" s="24">
+      <c r="B8" s="7"/>
+      <c r="C8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" t="s" s="26">
-        <v>17</v>
-      </c>
-      <c r="E9" s="27"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:A9"/>
-  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F7318B-E4E6-5949-AD62-51AC62AC6A2A}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="83">
+        <v>85</v>
+      </c>
+      <c r="B1" s="83">
+        <v>85</v>
+      </c>
+      <c r="C1" s="83">
+        <v>85</v>
+      </c>
+      <c r="D1" s="83">
+        <v>85</v>
+      </c>
+      <c r="E1" s="83">
+        <v>85</v>
+      </c>
+      <c r="F1" s="83">
+        <v>85</v>
+      </c>
+      <c r="G1" s="83">
+        <v>85</v>
+      </c>
+      <c r="H1" s="83">
+        <v>85</v>
+      </c>
+      <c r="I1" s="83">
+        <v>85</v>
+      </c>
+      <c r="J1" s="83">
+        <v>85</v>
+      </c>
+      <c r="K1" s="83">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="83">
+        <v>85</v>
+      </c>
+      <c r="B2" s="83">
+        <v>85</v>
+      </c>
+      <c r="C2" s="83">
+        <v>90</v>
+      </c>
+      <c r="D2" s="83">
+        <v>90</v>
+      </c>
+      <c r="E2" s="83">
+        <v>90</v>
+      </c>
+      <c r="F2" s="83">
+        <v>90</v>
+      </c>
+      <c r="G2" s="83">
+        <v>90</v>
+      </c>
+      <c r="H2" s="83">
+        <v>90</v>
+      </c>
+      <c r="I2" s="83">
+        <v>90</v>
+      </c>
+      <c r="J2" s="83">
+        <v>90</v>
+      </c>
+      <c r="K2" s="83">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="83">
+        <v>85</v>
+      </c>
+      <c r="B3" s="83">
+        <v>85</v>
+      </c>
+      <c r="C3" s="83">
+        <v>92</v>
+      </c>
+      <c r="D3" s="83">
+        <v>92</v>
+      </c>
+      <c r="E3" s="83">
+        <v>92</v>
+      </c>
+      <c r="F3" s="83">
+        <v>92</v>
+      </c>
+      <c r="G3" s="83">
+        <v>92</v>
+      </c>
+      <c r="H3" s="83">
+        <v>92</v>
+      </c>
+      <c r="I3" s="83">
+        <v>92</v>
+      </c>
+      <c r="J3" s="83">
+        <v>92</v>
+      </c>
+      <c r="K3" s="83">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="83">
+        <v>85</v>
+      </c>
+      <c r="B4" s="83">
+        <v>85</v>
+      </c>
+      <c r="C4" s="83">
+        <v>92</v>
+      </c>
+      <c r="D4" s="83">
+        <v>92</v>
+      </c>
+      <c r="E4" s="83">
+        <v>93</v>
+      </c>
+      <c r="F4" s="83">
+        <v>93</v>
+      </c>
+      <c r="G4" s="83">
+        <v>93</v>
+      </c>
+      <c r="H4" s="83">
+        <v>93</v>
+      </c>
+      <c r="I4" s="83">
+        <v>92</v>
+      </c>
+      <c r="J4" s="83">
+        <v>92</v>
+      </c>
+      <c r="K4" s="83">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="83">
+        <v>85</v>
+      </c>
+      <c r="B5" s="83">
+        <v>85</v>
+      </c>
+      <c r="C5" s="83">
+        <v>93</v>
+      </c>
+      <c r="D5" s="83">
+        <v>94</v>
+      </c>
+      <c r="E5" s="83">
+        <v>94</v>
+      </c>
+      <c r="F5" s="83">
+        <v>94</v>
+      </c>
+      <c r="G5" s="83">
+        <v>94</v>
+      </c>
+      <c r="H5" s="83">
+        <v>94</v>
+      </c>
+      <c r="I5" s="83">
+        <v>94</v>
+      </c>
+      <c r="J5" s="83">
+        <v>94</v>
+      </c>
+      <c r="K5" s="83">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="83">
+        <v>85</v>
+      </c>
+      <c r="B6" s="83">
+        <v>85</v>
+      </c>
+      <c r="C6" s="83">
+        <v>93</v>
+      </c>
+      <c r="D6" s="83">
+        <v>94</v>
+      </c>
+      <c r="E6" s="83">
+        <v>94</v>
+      </c>
+      <c r="F6" s="83">
+        <v>95</v>
+      </c>
+      <c r="G6" s="83">
+        <v>95</v>
+      </c>
+      <c r="H6" s="83">
+        <v>95</v>
+      </c>
+      <c r="I6" s="83">
+        <v>95</v>
+      </c>
+      <c r="J6" s="83">
+        <v>95</v>
+      </c>
+      <c r="K6" s="83">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="83">
+        <v>85</v>
+      </c>
+      <c r="B7" s="83">
+        <v>85</v>
+      </c>
+      <c r="C7" s="83">
+        <v>93</v>
+      </c>
+      <c r="D7" s="83">
+        <v>94</v>
+      </c>
+      <c r="E7" s="83">
+        <v>94</v>
+      </c>
+      <c r="F7" s="83">
+        <v>95</v>
+      </c>
+      <c r="G7" s="83">
+        <v>95</v>
+      </c>
+      <c r="H7" s="83">
+        <v>95</v>
+      </c>
+      <c r="I7" s="83">
+        <v>95</v>
+      </c>
+      <c r="J7" s="83">
+        <v>95</v>
+      </c>
+      <c r="K7" s="83">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="83">
+        <v>85</v>
+      </c>
+      <c r="B8" s="83">
+        <v>85</v>
+      </c>
+      <c r="C8" s="83">
+        <v>93</v>
+      </c>
+      <c r="D8" s="83">
+        <v>94</v>
+      </c>
+      <c r="E8" s="83">
+        <v>95</v>
+      </c>
+      <c r="F8" s="83">
+        <v>95</v>
+      </c>
+      <c r="G8" s="83">
+        <v>95</v>
+      </c>
+      <c r="H8" s="83">
+        <v>95</v>
+      </c>
+      <c r="I8" s="83">
+        <v>95</v>
+      </c>
+      <c r="J8" s="83">
+        <v>95</v>
+      </c>
+      <c r="K8" s="83">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="83">
+        <v>85</v>
+      </c>
+      <c r="B9" s="83">
+        <v>85</v>
+      </c>
+      <c r="C9" s="83">
+        <v>93</v>
+      </c>
+      <c r="D9" s="83">
+        <v>94</v>
+      </c>
+      <c r="E9" s="83">
+        <v>95</v>
+      </c>
+      <c r="F9" s="83">
+        <v>95</v>
+      </c>
+      <c r="G9" s="83">
+        <v>95</v>
+      </c>
+      <c r="H9" s="83">
+        <v>95</v>
+      </c>
+      <c r="I9" s="83">
+        <v>95</v>
+      </c>
+      <c r="J9" s="83">
+        <v>95</v>
+      </c>
+      <c r="K9" s="83">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="83">
+        <v>85</v>
+      </c>
+      <c r="B10" s="83">
+        <v>85</v>
+      </c>
+      <c r="C10" s="83">
+        <v>93</v>
+      </c>
+      <c r="D10" s="83">
+        <v>94</v>
+      </c>
+      <c r="E10" s="83">
+        <v>94</v>
+      </c>
+      <c r="F10" s="83">
+        <v>94</v>
+      </c>
+      <c r="G10" s="83">
+        <v>94</v>
+      </c>
+      <c r="H10" s="83">
+        <v>94</v>
+      </c>
+      <c r="I10" s="83">
+        <v>94</v>
+      </c>
+      <c r="J10" s="83">
+        <v>94</v>
+      </c>
+      <c r="K10" s="83">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="83">
+        <v>85</v>
+      </c>
+      <c r="B11" s="83">
+        <v>85</v>
+      </c>
+      <c r="C11" s="83">
+        <v>90</v>
+      </c>
+      <c r="D11" s="83">
+        <v>92</v>
+      </c>
+      <c r="E11" s="83">
+        <v>93</v>
+      </c>
+      <c r="F11" s="83">
+        <v>93</v>
+      </c>
+      <c r="G11" s="83">
+        <v>93</v>
+      </c>
+      <c r="H11" s="83">
+        <v>93</v>
+      </c>
+      <c r="I11" s="83">
+        <v>93</v>
+      </c>
+      <c r="J11" s="83">
+        <v>93</v>
+      </c>
+      <c r="K11" s="83">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="83">
+        <v>85</v>
+      </c>
+      <c r="B12" s="83">
+        <v>85</v>
+      </c>
+      <c r="C12" s="83">
+        <v>90</v>
+      </c>
+      <c r="D12" s="83">
+        <v>92</v>
+      </c>
+      <c r="E12" s="83">
+        <v>93</v>
+      </c>
+      <c r="F12" s="83">
+        <v>93</v>
+      </c>
+      <c r="G12" s="83">
+        <v>93</v>
+      </c>
+      <c r="H12" s="83">
+        <v>93</v>
+      </c>
+      <c r="I12" s="83">
+        <v>93</v>
+      </c>
+      <c r="J12" s="83">
+        <v>93</v>
+      </c>
+      <c r="K12" s="83">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="83">
+        <v>85</v>
+      </c>
+      <c r="B13" s="83">
+        <v>85</v>
+      </c>
+      <c r="C13" s="83">
+        <v>90</v>
+      </c>
+      <c r="D13" s="83">
+        <v>92</v>
+      </c>
+      <c r="E13" s="83">
+        <v>93</v>
+      </c>
+      <c r="F13" s="83">
+        <v>93</v>
+      </c>
+      <c r="G13" s="83">
+        <v>93</v>
+      </c>
+      <c r="H13" s="83">
+        <v>93</v>
+      </c>
+      <c r="I13" s="83">
+        <v>93</v>
+      </c>
+      <c r="J13" s="83">
+        <v>93</v>
+      </c>
+      <c r="K13" s="83">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="83">
+        <v>85</v>
+      </c>
+      <c r="B14" s="83">
+        <v>85</v>
+      </c>
+      <c r="C14" s="83">
+        <v>90</v>
+      </c>
+      <c r="D14" s="83">
+        <v>92</v>
+      </c>
+      <c r="E14" s="83">
+        <v>93</v>
+      </c>
+      <c r="F14" s="83">
+        <v>93</v>
+      </c>
+      <c r="G14" s="83">
+        <v>93</v>
+      </c>
+      <c r="H14" s="83">
+        <v>93</v>
+      </c>
+      <c r="I14" s="83">
+        <v>93</v>
+      </c>
+      <c r="J14" s="83">
+        <v>93</v>
+      </c>
+      <c r="K14" s="83">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6719" style="28" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="28" customWidth="1"/>
-    <col min="3" max="3" width="16.6719" style="28" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="28" customWidth="1"/>
-    <col min="5" max="5" width="37.1719" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="28" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" t="s" s="4">
+      <c r="B1" s="25"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>5</v>
+    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>6</v>
+    <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="29">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s" s="12">
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s" s="31">
+      <c r="C5" s="28">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="14.1" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" t="s" s="17">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" t="s" s="19">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s" s="32">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" t="s" s="17">
-        <v>24</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" t="s" s="19">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s" s="32">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" t="s" s="17">
-        <v>26</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" t="s" s="19">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s" s="32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" t="s" s="17">
-        <v>27</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" t="s" s="19">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s" s="32">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" t="s" s="19">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s" s="32">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" t="s" s="24">
-        <v>30</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" t="s" s="26">
-        <v>31</v>
-      </c>
-      <c r="E11" s="27"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:A11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2636,102 +3615,134 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.4219" style="34" customWidth="1"/>
-    <col min="2" max="2" width="22.4375" style="34" customWidth="1"/>
-    <col min="3" max="3" width="16.6719" style="34" customWidth="1"/>
-    <col min="4" max="4" width="9.39844" style="34" customWidth="1"/>
-    <col min="5" max="5" width="42.4375" style="34" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="34" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="35">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" t="s" s="4">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="37">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.1" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" t="s" s="8">
-        <v>32</v>
-      </c>
+      <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" ht="14.1" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>5</v>
+    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" t="s" s="8">
-        <v>33</v>
-      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" ht="14.1" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>6</v>
+    <row r="4" spans="1:5" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" t="s" s="8">
-        <v>34</v>
-      </c>
+      <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" t="s" s="38">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C5" s="39">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" t="s" s="40">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" t="s" s="38">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C6" s="39">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" t="s" s="40">
-        <v>37</v>
-      </c>
+    <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="43">
+        <v>200</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="42">
+        <v>26000</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="17">
+        <v>130</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17">
+        <v>90</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2739,457 +3750,2000 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="92"/>
+      <c r="B6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="93"/>
+      <c r="B7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="92"/>
+      <c r="B9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="93"/>
+      <c r="B10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="64"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="92"/>
+      <c r="B12" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="59">
+        <v>24</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="64"/>
+    </row>
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="87"/>
+      <c r="C13" s="59">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF150FC-6821-5C41-A667-322EB01AF871}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1" s="84">
+        <v>195.6</v>
+      </c>
+      <c r="B1">
+        <v>180.9</v>
+      </c>
+      <c r="C1">
+        <v>179.5</v>
+      </c>
+      <c r="D1">
+        <v>169.8</v>
+      </c>
+      <c r="E1">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="F1">
+        <v>154.80000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>193.7</v>
+      </c>
+      <c r="B2">
+        <v>182.4</v>
+      </c>
+      <c r="C2">
+        <v>178.2</v>
+      </c>
+      <c r="D2">
+        <v>168.7</v>
+      </c>
+      <c r="E2">
+        <v>159.4</v>
+      </c>
+      <c r="F2">
+        <v>153.69999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>192.4</v>
+      </c>
+      <c r="B3">
+        <v>184.8</v>
+      </c>
+      <c r="C3">
+        <v>177.9</v>
+      </c>
+      <c r="D3">
+        <v>166.5</v>
+      </c>
+      <c r="E3">
+        <v>158.6</v>
+      </c>
+      <c r="F3">
+        <v>152.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>191.1</v>
+      </c>
+      <c r="B4">
+        <v>185.2</v>
+      </c>
+      <c r="C4">
+        <v>176.7</v>
+      </c>
+      <c r="D4">
+        <v>164.7</v>
+      </c>
+      <c r="E4">
+        <v>157.5</v>
+      </c>
+      <c r="F4">
+        <v>151.69999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>190.8</v>
+      </c>
+      <c r="B5">
+        <v>186.4</v>
+      </c>
+      <c r="C5">
+        <v>174.9</v>
+      </c>
+      <c r="D5">
+        <v>161.9</v>
+      </c>
+      <c r="E5">
+        <v>156.9</v>
+      </c>
+      <c r="F5">
+        <v>150.30000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>189.1</v>
+      </c>
+      <c r="B6">
+        <v>187</v>
+      </c>
+      <c r="C6">
+        <v>171.2</v>
+      </c>
+      <c r="D6">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="E6">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="F6">
+        <v>148.80000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA2ED46-B37C-154C-96D9-D486F3E46713}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>4.2300000000000003E-3</v>
+      </c>
+      <c r="B1">
+        <v>3.5699999999999998E-3</v>
+      </c>
+      <c r="C1">
+        <v>3.15E-3</v>
+      </c>
+      <c r="D1">
+        <v>2.7699999999999999E-3</v>
+      </c>
+      <c r="E1">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="F1">
+        <v>2.9399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>3.8E-3</v>
+      </c>
+      <c r="B2">
+        <v>3.2699999999999999E-3</v>
+      </c>
+      <c r="C2">
+        <v>2.98E-3</v>
+      </c>
+      <c r="D2">
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="E2">
+        <v>2.8900000000000002E-3</v>
+      </c>
+      <c r="F2">
+        <v>3.29E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3.7699999999999999E-3</v>
+      </c>
+      <c r="B3">
+        <v>3.1900000000000001E-3</v>
+      </c>
+      <c r="C3">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D3">
+        <v>3.1099999999999999E-3</v>
+      </c>
+      <c r="E3">
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="F3">
+        <v>3.1199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3.6600000000000001E-3</v>
+      </c>
+      <c r="B4">
+        <v>3.8E-3</v>
+      </c>
+      <c r="C4">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D4">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="E4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F4">
+        <v>2.7299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3.62E-3</v>
+      </c>
+      <c r="B5">
+        <v>3.13E-3</v>
+      </c>
+      <c r="C5">
+        <v>2.7699999999999999E-3</v>
+      </c>
+      <c r="D5">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="E5">
+        <v>2.9299999999999999E-3</v>
+      </c>
+      <c r="F5">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3.5899999999999999E-3</v>
+      </c>
+      <c r="B6">
+        <v>3.0799999999999998E-3</v>
+      </c>
+      <c r="C6">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="D6">
+        <v>2.7299999999999998E-3</v>
+      </c>
+      <c r="E6">
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="F6">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7304C294-FB75-124A-A365-CF50D408345C}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94"/>
+      <c r="B6" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="46"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79">
+        <v>50</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="81"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="92"/>
+      <c r="B9" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="94"/>
+      <c r="B10" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="66">
+        <v>25</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="68"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="92"/>
+      <c r="B12" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="70">
+        <v>100</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="72"/>
+    </row>
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="92"/>
+      <c r="B13" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="92"/>
+      <c r="B14" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="70">
+        <v>800</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="72"/>
+    </row>
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="94"/>
+      <c r="B15" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="74">
+        <v>300</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="76"/>
+    </row>
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="59">
+        <v>0</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.17188" style="41" customWidth="1"/>
-    <col min="2" max="2" width="20" style="41" customWidth="1"/>
-    <col min="3" max="3" width="14" style="41" customWidth="1"/>
-    <col min="4" max="16384" width="8.85156" style="41" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" s="42"/>
-      <c r="B1" t="s" s="43">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="44">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30"/>
+      <c r="B1" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34">
         <v>0</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="48">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
+      <c r="B3" s="36">
         <v>100</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46">
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34">
         <v>200</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="48">
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="36">
         <v>300</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46">
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34">
         <v>400</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="48">
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="36">
         <v>500</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46">
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34">
         <v>600</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="48">
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="36">
         <v>700</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46">
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34">
         <v>800</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="48">
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="B11" s="36">
         <v>900</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46">
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34">
         <v>1000</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="45"/>
-      <c r="B13" s="48">
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+      <c r="B13" s="36">
         <v>1100</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46">
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34">
         <v>1200</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="48">
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="36">
         <v>1300</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46">
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34">
         <v>1400</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="48">
+    <row r="17" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="B17" s="36">
         <v>1500</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46">
+    <row r="18" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34">
         <v>1600</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="48">
+    <row r="19" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="36">
         <v>1700</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46">
+    <row r="20" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34">
         <v>1800</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="48">
+    <row r="21" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+      <c r="B21" s="36">
         <v>1900</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46">
+    <row r="22" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34">
         <v>2000</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="48">
+    <row r="23" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="36">
         <v>2100</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46">
+    <row r="24" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34">
         <v>2200</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="48">
+    <row r="25" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
+      <c r="B25" s="36">
         <v>2300</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46">
+    <row r="26" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34">
         <v>2400</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="48">
+    <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
+      <c r="B27" s="36">
         <v>2500</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46">
+    <row r="28" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="34">
         <v>2600</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="45"/>
-      <c r="B29" s="48">
+    <row r="29" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
+      <c r="B29" s="36">
         <v>2700</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46">
+    <row r="30" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34">
         <v>2800</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="48">
+    <row r="31" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="36">
         <v>2900</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46">
+    <row r="32" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="34">
         <v>3000</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C32" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="48">
+    <row r="33" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="36">
         <v>3100</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46">
+    <row r="34" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="33"/>
+      <c r="B34" s="34">
         <v>3200</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="45"/>
-      <c r="B35" s="48">
+    <row r="35" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="33"/>
+      <c r="B35" s="36">
         <v>3300</v>
       </c>
-      <c r="C35" s="49">
+      <c r="C35" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="45"/>
-      <c r="B36" s="46">
+    <row r="36" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="33"/>
+      <c r="B36" s="34">
         <v>3400</v>
       </c>
-      <c r="C36" s="47">
+      <c r="C36" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="45"/>
-      <c r="B37" s="48">
+    <row r="37" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="33"/>
+      <c r="B37" s="36">
         <v>3500</v>
       </c>
-      <c r="C37" s="49">
+      <c r="C37" s="37">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="45"/>
-      <c r="B38" s="46">
+    <row r="38" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="B38" s="34">
         <v>3600</v>
       </c>
-      <c r="C38" s="47">
+      <c r="C38" s="35">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="45"/>
-      <c r="B39" s="48">
+    <row r="39" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="36">
         <v>3700</v>
       </c>
-      <c r="C39" s="50">
-        <v>44.843689833269</v>
-      </c>
-    </row>
-    <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="45"/>
-      <c r="B40" s="46">
+      <c r="C39" s="38">
+        <v>44.843689833269003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="33"/>
+      <c r="B40" s="34">
         <v>3800</v>
       </c>
-      <c r="C40" s="47">
-        <v>36.8215688218961</v>
-      </c>
-    </row>
-    <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="45"/>
-      <c r="B41" s="48">
+      <c r="C40" s="35">
+        <v>36.821568821896101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="33"/>
+      <c r="B41" s="36">
         <v>3900</v>
       </c>
-      <c r="C41" s="50">
-        <v>30.062728824122</v>
-      </c>
-    </row>
-    <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="46">
+      <c r="C41" s="38">
+        <v>30.062728824122001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="33"/>
+      <c r="B42" s="34">
         <v>4000</v>
       </c>
-      <c r="C42" s="47">
-        <v>25.3370743140982</v>
-      </c>
-    </row>
-    <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="45"/>
-      <c r="B43" s="48">
+      <c r="C42" s="35">
+        <v>25.337074314098199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="33"/>
+      <c r="B43" s="36">
         <v>4100</v>
       </c>
-      <c r="C43" s="49">
-        <v>21.0374123095361</v>
-      </c>
-    </row>
-    <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="45"/>
-      <c r="B44" s="46">
+      <c r="C43" s="37">
+        <v>21.037412309536101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="33"/>
+      <c r="B44" s="34">
         <v>4200</v>
       </c>
-      <c r="C44" s="47">
-        <v>17.0840324267782</v>
-      </c>
-    </row>
-    <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="45"/>
-      <c r="B45" s="48">
+      <c r="C44" s="35">
+        <v>17.084032426778201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="33"/>
+      <c r="B45" s="36">
         <v>4300</v>
       </c>
-      <c r="C45" s="49">
+      <c r="C45" s="37">
         <v>13.4184887499186</v>
       </c>
     </row>
-    <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" s="45"/>
-      <c r="B46" s="46">
+    <row r="46" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="33"/>
+      <c r="B46" s="34">
         <v>4400</v>
       </c>
-      <c r="C46" s="51">
-        <v>9.995926848330519</v>
-      </c>
-    </row>
-    <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" s="45"/>
-      <c r="B47" s="48">
+      <c r="C46" s="39">
+        <v>9.9959268483305195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="33"/>
+      <c r="B47" s="36">
         <v>4500</v>
       </c>
-      <c r="C47" s="52">
-        <v>6.77696534591492</v>
-      </c>
-    </row>
-    <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="53"/>
-      <c r="B48" s="46">
+      <c r="C47" s="40">
+        <v>6.7769653459149204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="41"/>
+      <c r="B48" s="34">
         <v>4600</v>
       </c>
-      <c r="C48" s="51">
-        <v>3.73957484604455</v>
+      <c r="C48" s="39">
+        <v>3.7395748460445501</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6092EB-B6D8-9D4F-9016-BD8CF6D5CD4E}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="83">
+        <v>90</v>
+      </c>
+      <c r="B1" s="83">
+        <v>90</v>
+      </c>
+      <c r="C1" s="83">
+        <v>90</v>
+      </c>
+      <c r="D1" s="83">
+        <v>90</v>
+      </c>
+      <c r="E1" s="83">
+        <v>90</v>
+      </c>
+      <c r="F1" s="83">
+        <v>90</v>
+      </c>
+      <c r="G1" s="83">
+        <v>90</v>
+      </c>
+      <c r="H1" s="83">
+        <v>90</v>
+      </c>
+      <c r="I1" s="83">
+        <v>90</v>
+      </c>
+      <c r="J1" s="83">
+        <v>90</v>
+      </c>
+      <c r="K1" s="83">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="83">
+        <v>90</v>
+      </c>
+      <c r="B2" s="83">
+        <v>90</v>
+      </c>
+      <c r="C2" s="83">
+        <v>90</v>
+      </c>
+      <c r="D2" s="83">
+        <v>90</v>
+      </c>
+      <c r="E2" s="83">
+        <v>90</v>
+      </c>
+      <c r="F2" s="83">
+        <v>90</v>
+      </c>
+      <c r="G2" s="83">
+        <v>90</v>
+      </c>
+      <c r="H2" s="83">
+        <v>90</v>
+      </c>
+      <c r="I2" s="83">
+        <v>90</v>
+      </c>
+      <c r="J2" s="83">
+        <v>90</v>
+      </c>
+      <c r="K2" s="83">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="83">
+        <v>90</v>
+      </c>
+      <c r="B3" s="83">
+        <v>90</v>
+      </c>
+      <c r="C3" s="83">
+        <v>90</v>
+      </c>
+      <c r="D3" s="83">
+        <v>90</v>
+      </c>
+      <c r="E3" s="83">
+        <v>90</v>
+      </c>
+      <c r="F3" s="83">
+        <v>90</v>
+      </c>
+      <c r="G3" s="83">
+        <v>90</v>
+      </c>
+      <c r="H3" s="83">
+        <v>90</v>
+      </c>
+      <c r="I3" s="83">
+        <v>90</v>
+      </c>
+      <c r="J3" s="83">
+        <v>90</v>
+      </c>
+      <c r="K3" s="83">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="83">
+        <v>90</v>
+      </c>
+      <c r="B4" s="83">
+        <v>90</v>
+      </c>
+      <c r="C4" s="83">
+        <v>90</v>
+      </c>
+      <c r="D4" s="83">
+        <v>90</v>
+      </c>
+      <c r="E4" s="83">
+        <v>90</v>
+      </c>
+      <c r="F4" s="83">
+        <v>90</v>
+      </c>
+      <c r="G4" s="83">
+        <v>90</v>
+      </c>
+      <c r="H4" s="83">
+        <v>90</v>
+      </c>
+      <c r="I4" s="83">
+        <v>90</v>
+      </c>
+      <c r="J4" s="83">
+        <v>90</v>
+      </c>
+      <c r="K4" s="83">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="83">
+        <v>90</v>
+      </c>
+      <c r="B5" s="83">
+        <v>90</v>
+      </c>
+      <c r="C5" s="83">
+        <v>90</v>
+      </c>
+      <c r="D5" s="83">
+        <v>90</v>
+      </c>
+      <c r="E5" s="83">
+        <v>90</v>
+      </c>
+      <c r="F5" s="83">
+        <v>90</v>
+      </c>
+      <c r="G5" s="83">
+        <v>90</v>
+      </c>
+      <c r="H5" s="83">
+        <v>90</v>
+      </c>
+      <c r="I5" s="83">
+        <v>90</v>
+      </c>
+      <c r="J5" s="83">
+        <v>90</v>
+      </c>
+      <c r="K5" s="83">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="83">
+        <v>90</v>
+      </c>
+      <c r="B6" s="83">
+        <v>90</v>
+      </c>
+      <c r="C6" s="83">
+        <v>90</v>
+      </c>
+      <c r="D6" s="83">
+        <v>90</v>
+      </c>
+      <c r="E6" s="83">
+        <v>90</v>
+      </c>
+      <c r="F6" s="83">
+        <v>90</v>
+      </c>
+      <c r="G6" s="83">
+        <v>90</v>
+      </c>
+      <c r="H6" s="83">
+        <v>90</v>
+      </c>
+      <c r="I6" s="83">
+        <v>90</v>
+      </c>
+      <c r="J6" s="83">
+        <v>90</v>
+      </c>
+      <c r="K6" s="83">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="83">
+        <v>90</v>
+      </c>
+      <c r="B7" s="83">
+        <v>90</v>
+      </c>
+      <c r="C7" s="83">
+        <v>90</v>
+      </c>
+      <c r="D7" s="83">
+        <v>90</v>
+      </c>
+      <c r="E7" s="83">
+        <v>90</v>
+      </c>
+      <c r="F7" s="83">
+        <v>90</v>
+      </c>
+      <c r="G7" s="83">
+        <v>90</v>
+      </c>
+      <c r="H7" s="83">
+        <v>90</v>
+      </c>
+      <c r="I7" s="83">
+        <v>90</v>
+      </c>
+      <c r="J7" s="83">
+        <v>90</v>
+      </c>
+      <c r="K7" s="83">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="83">
+        <v>90</v>
+      </c>
+      <c r="B8" s="83">
+        <v>90</v>
+      </c>
+      <c r="C8" s="83">
+        <v>90</v>
+      </c>
+      <c r="D8" s="83">
+        <v>90</v>
+      </c>
+      <c r="E8" s="83">
+        <v>90</v>
+      </c>
+      <c r="F8" s="83">
+        <v>90</v>
+      </c>
+      <c r="G8" s="83">
+        <v>90</v>
+      </c>
+      <c r="H8" s="83">
+        <v>90</v>
+      </c>
+      <c r="I8" s="83">
+        <v>90</v>
+      </c>
+      <c r="J8" s="83">
+        <v>90</v>
+      </c>
+      <c r="K8" s="83">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="83">
+        <v>90</v>
+      </c>
+      <c r="B9" s="83">
+        <v>90</v>
+      </c>
+      <c r="C9" s="83">
+        <v>90</v>
+      </c>
+      <c r="D9" s="83">
+        <v>90</v>
+      </c>
+      <c r="E9" s="83">
+        <v>90</v>
+      </c>
+      <c r="F9" s="83">
+        <v>90</v>
+      </c>
+      <c r="G9" s="83">
+        <v>90</v>
+      </c>
+      <c r="H9" s="83">
+        <v>90</v>
+      </c>
+      <c r="I9" s="83">
+        <v>90</v>
+      </c>
+      <c r="J9" s="83">
+        <v>90</v>
+      </c>
+      <c r="K9" s="83">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="83">
+        <v>90</v>
+      </c>
+      <c r="B10" s="83">
+        <v>90</v>
+      </c>
+      <c r="C10" s="83">
+        <v>90</v>
+      </c>
+      <c r="D10" s="83">
+        <v>90</v>
+      </c>
+      <c r="E10" s="83">
+        <v>90</v>
+      </c>
+      <c r="F10" s="83">
+        <v>90</v>
+      </c>
+      <c r="G10" s="83">
+        <v>90</v>
+      </c>
+      <c r="H10" s="83">
+        <v>90</v>
+      </c>
+      <c r="I10" s="83">
+        <v>90</v>
+      </c>
+      <c r="J10" s="83">
+        <v>90</v>
+      </c>
+      <c r="K10" s="83">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="83">
+        <v>90</v>
+      </c>
+      <c r="B11" s="83">
+        <v>90</v>
+      </c>
+      <c r="C11" s="83">
+        <v>90</v>
+      </c>
+      <c r="D11" s="83">
+        <v>90</v>
+      </c>
+      <c r="E11" s="83">
+        <v>90</v>
+      </c>
+      <c r="F11" s="83">
+        <v>90</v>
+      </c>
+      <c r="G11" s="83">
+        <v>90</v>
+      </c>
+      <c r="H11" s="83">
+        <v>90</v>
+      </c>
+      <c r="I11" s="83">
+        <v>90</v>
+      </c>
+      <c r="J11" s="83">
+        <v>90</v>
+      </c>
+      <c r="K11" s="83">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="83">
+        <v>90</v>
+      </c>
+      <c r="B12" s="83">
+        <v>90</v>
+      </c>
+      <c r="C12" s="83">
+        <v>90</v>
+      </c>
+      <c r="D12" s="83">
+        <v>90</v>
+      </c>
+      <c r="E12" s="83">
+        <v>90</v>
+      </c>
+      <c r="F12" s="83">
+        <v>90</v>
+      </c>
+      <c r="G12" s="83">
+        <v>90</v>
+      </c>
+      <c r="H12" s="83">
+        <v>90</v>
+      </c>
+      <c r="I12" s="83">
+        <v>90</v>
+      </c>
+      <c r="J12" s="83">
+        <v>90</v>
+      </c>
+      <c r="K12" s="83">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="83">
+        <v>90</v>
+      </c>
+      <c r="B13" s="83">
+        <v>90</v>
+      </c>
+      <c r="C13" s="83">
+        <v>90</v>
+      </c>
+      <c r="D13" s="83">
+        <v>90</v>
+      </c>
+      <c r="E13" s="83">
+        <v>90</v>
+      </c>
+      <c r="F13" s="83">
+        <v>90</v>
+      </c>
+      <c r="G13" s="83">
+        <v>90</v>
+      </c>
+      <c r="H13" s="83">
+        <v>90</v>
+      </c>
+      <c r="I13" s="83">
+        <v>90</v>
+      </c>
+      <c r="J13" s="83">
+        <v>90</v>
+      </c>
+      <c r="K13" s="83">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="83">
+        <v>90</v>
+      </c>
+      <c r="B14" s="83">
+        <v>90</v>
+      </c>
+      <c r="C14" s="83">
+        <v>90</v>
+      </c>
+      <c r="D14" s="83">
+        <v>90</v>
+      </c>
+      <c r="E14" s="83">
+        <v>90</v>
+      </c>
+      <c r="F14" s="83">
+        <v>90</v>
+      </c>
+      <c r="G14" s="83">
+        <v>90</v>
+      </c>
+      <c r="H14" s="83">
+        <v>90</v>
+      </c>
+      <c r="I14" s="83">
+        <v>90</v>
+      </c>
+      <c r="J14" s="83">
+        <v>90</v>
+      </c>
+      <c r="K14" s="83">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009342B7EAA7728A4FA80A5CCAFE8D7EAF" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3d037a5681ee6af0e7b5b5d0a2f99b20">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9557458c-24b5-4c97-84ed-4c402655f54f" xmlns:ns3="72e3c584-9879-4b35-b9d8-6a248c93e240" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="966978c8b125399653e7c255ac8e342d" ns2:_="" ns3:_="">
+    <xsd:import namespace="9557458c-24b5-4c97-84ed-4c402655f54f"/>
+    <xsd:import namespace="72e3c584-9879-4b35-b9d8-6a248c93e240"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9557458c-24b5-4c97-84ed-4c402655f54f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a4a520e9-238f-4391-a566-21dd42474770" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="26" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="72e3c584-9879-4b35-b9d8-6a248c93e240" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{0d80220e-f9c1-4e35-9963-4ab067410620}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="72e3c584-9879-4b35-b9d8-6a248c93e240">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9557458c-24b5-4c97-84ed-4c402655f54f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="72e3c584-9879-4b35-b9d8-6a248c93e240" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8192A017-E4B6-4D7F-8544-3BE30BB952E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A290CD9-4138-4944-8A1F-A307385BF4B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9557458c-24b5-4c97-84ed-4c402655f54f"/>
+    <ds:schemaRef ds:uri="72e3c584-9879-4b35-b9d8-6a248c93e240"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3314153-DE99-46E1-9177-E565F1EC3082}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9557458c-24b5-4c97-84ed-4c402655f54f"/>
+    <ds:schemaRef ds:uri="72e3c584-9879-4b35-b9d8-6a248c93e240"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>